--- a/englishOutputs/englishComparison_5.xlsx
+++ b/englishOutputs/englishComparison_5.xlsx
@@ -64,562 +64,562 @@
     <t>?service</t>
   </si>
   <si>
+    <t>Okay.</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t>I used to carry one around and I just kind of let it lapse.</t>
+  </si>
+  <si>
+    <t>gives-thera</t>
+  </si>
+  <si>
+    <t>gives-l/s</t>
+  </si>
+  <si>
+    <t>I haven't been              in the woods much.</t>
+  </si>
+  <si>
+    <t>concern</t>
+  </si>
+  <si>
+    <t>Ah-huh.</t>
+  </si>
+  <si>
+    <t>I went out hiking yesterday and got stung by a bee</t>
+  </si>
+  <si>
+    <t>and got a       nice big reaction on my leg.</t>
+  </si>
+  <si>
+    <t>What kind of a reaction?</t>
+  </si>
+  <si>
+    <t>?med</t>
+  </si>
+  <si>
+    <t>Basically swelling.</t>
+  </si>
+  <si>
+    <t>Have you ever had any other problem other than swelling?</t>
+  </si>
+  <si>
+    <t>None other than swelling.</t>
+  </si>
+  <si>
+    <t>Each one gets progressively a little  more severe.</t>
+  </si>
+  <si>
+    <t>Now was this, what type of bee, yellow jacket...?</t>
+  </si>
+  <si>
+    <t>Yeah.</t>
+  </si>
+  <si>
+    <t>Have you ever used a bee sting kit?</t>
+  </si>
+  <si>
+    <t>[?]thera</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>I was a little concerned.</t>
+  </si>
+  <si>
+    <t>I'm taking off Friday for a week in the back country…</t>
+  </si>
+  <si>
+    <t>In the Tetons.</t>
+  </si>
+  <si>
+    <t>And we won't be able to get out.</t>
+  </si>
+  <si>
+    <t>And it'd be some miserable time  if there was something wrong.</t>
+  </si>
+  <si>
+    <t>Ah, in general, the kind of reaction you have is the kind of reaction you'll have.</t>
+  </si>
+  <si>
+    <t>c-l/s-p/s</t>
+  </si>
+  <si>
+    <t>So if you tend to get swelling and tend not to get asthma or lung problems—</t>
+  </si>
+  <si>
+    <t>It's not 100 per cent.</t>
+  </si>
+  <si>
+    <t>If you were in the general ------- area, I would probably recommend against buryin g</t>
+  </si>
+  <si>
+    <t>c-med/thera</t>
+  </si>
+  <si>
+    <t>It's only money.</t>
+  </si>
+  <si>
+    <t>laughs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeah. </t>
+  </si>
+  <si>
+    <t>(laughs)</t>
+  </si>
+  <si>
+    <t>And, as I say, the likelihood of--</t>
+  </si>
+  <si>
+    <t>trans</t>
+  </si>
+  <si>
+    <t>and they've done some research on this--</t>
+  </si>
+  <si>
+    <t>the likelihood of you having a significant reaction other than swelling, ah, is        extremely small.</t>
+  </si>
+  <si>
+    <t>Probably not much greater than, if any, the average person.</t>
+  </si>
+  <si>
+    <t>Ah, how much swelling you get depends on a couple of factors, well, three factors</t>
+  </si>
+  <si>
+    <t>Ah-hmm.</t>
+  </si>
+  <si>
+    <t>But that's usually about as far as it goes unless you have a major reaction.</t>
+  </si>
+  <si>
+    <t>Ah, the a ...now when you got stung was the stinger left in?</t>
+  </si>
+  <si>
+    <t>I didn't pay that much attention to it.</t>
+  </si>
+  <si>
+    <t>I knocked the bee off and--</t>
+  </si>
+  <si>
+    <t>Take a look when, if you should get stung to be sure that the stinger isn’t in       there.</t>
+  </si>
+  <si>
+    <t>orient</t>
+  </si>
+  <si>
+    <t>And do you know how to take the stinger out?</t>
+  </si>
+  <si>
+    <t>Never, never grab it</t>
+  </si>
+  <si>
+    <t>because if it's got the sack you'll essentially squeeze in like a hypodermic syringe.</t>
+  </si>
+  <si>
+    <t>What       you want to do is take the sharp edge</t>
+  </si>
+  <si>
+    <t>and if you've got a knife you take it like this.</t>
+  </si>
+  <si>
+    <t>And if this is the stinger you flick it on out.</t>
+  </si>
+  <si>
+    <t>You flick it out this way so that you’re going out rather than squeeze.</t>
+  </si>
+  <si>
+    <t>You can use a good sharp fingernail you can do  that too.</t>
+  </si>
+  <si>
+    <t>The idea is--you're not trying to cut yourself--</t>
+  </si>
+  <si>
+    <t>Right.</t>
+  </si>
+  <si>
+    <t>But the idea is to flick it out so that if you pull it out</t>
+  </si>
+  <si>
+    <t>rather than grab it and</t>
+  </si>
+  <si>
+    <t>(laughs</t>
+  </si>
+  <si>
+    <t>So, ah...were you not going to be where you would be a long long way from any kind of exposure, I would really probably say why bother.</t>
+  </si>
+  <si>
+    <t>It's always hard to say   don't do something that's a safety factor.</t>
+  </si>
+  <si>
+    <t>Other than when you're looking at costs and things.</t>
+  </si>
+  <si>
+    <t>So...But I would kind of...</t>
+  </si>
+  <si>
+    <t>I'll give you the prescription because, as you say, you're going to be way out there.</t>
+  </si>
+  <si>
+    <t>But to be honest, I don't think you need it.</t>
+  </si>
+  <si>
+    <t>The best thing that you could probably do                                                       is take some Benadryl.</t>
+  </si>
+  <si>
+    <t>And that, if you get stung, you take some of that.</t>
+  </si>
+  <si>
+    <t>That's an       antihistamine.</t>
+  </si>
+  <si>
+    <t>Because you're not going to give yourself an injection right in that                  area usually.</t>
+  </si>
+  <si>
+    <t>There are times when you can do a little bit in the area around it,       which will constrict it.</t>
+  </si>
+  <si>
+    <t>But you're not going to do that kind of thing.</t>
+  </si>
+  <si>
+    <t>The kits are basically for zot injection,</t>
+  </si>
+  <si>
+    <t>usually for somebody's who's got       respiratory problems</t>
+  </si>
+  <si>
+    <t>or where they're getting swelling of their throat and so on.</t>
+  </si>
+  <si>
+    <t>Having trouble breathing.</t>
+  </si>
+  <si>
+    <t>But a local reaction is not where you use the kit.</t>
+  </si>
+  <si>
+    <t>In fact the kits usually contain some chlorpheniramine,</t>
+  </si>
+  <si>
+    <t>which is  just a different                                                                     antihistamine plus the injectable.</t>
+  </si>
+  <si>
+    <t>I was going to ask you about Benadryl antihistamine.</t>
+  </si>
+  <si>
+    <t>Chlor-Trimeton, Chlorpheniramine are basically the same.</t>
+  </si>
+  <si>
+    <t>Benadryl is an old and tried--</t>
+  </si>
+  <si>
+    <t>makes you sleepy.</t>
+  </si>
+  <si>
+    <t>But you can't beat it.</t>
+  </si>
+  <si>
+    <t>And that's the thing, if you want to be sure to get the least reaction, in traditional kinds       of things that I would take.</t>
+  </si>
+  <si>
+    <t>The injection is adrenaline.</t>
+  </si>
+  <si>
+    <t>And it'll speed up your       heart rate and make you jittery and nervous and things like that.</t>
+  </si>
+  <si>
+    <t>It wears off in about        15 minutes.</t>
+  </si>
+  <si>
+    <t>But it can be life- saving if you can't breathe.</t>
+  </si>
+  <si>
+    <t>And as I say, the likelihood of your going into not being                                        able to breath is extremely small.</t>
+  </si>
+  <si>
+    <t>Very small.</t>
+  </si>
+  <si>
+    <t>You know, if you told me that this                                happened and your face swelled up from the  injection then I’d be very concerned</t>
+  </si>
+  <si>
+    <t>or that you had asthma from it or something, then I’d be very concerned.</t>
+  </si>
+  <si>
+    <t>And you really don't have any history of asthma or anything like that.</t>
+  </si>
+  <si>
+    <t>Oh, okay.</t>
+  </si>
+  <si>
+    <t>So, ah...</t>
+  </si>
+  <si>
+    <t>Do you remember what kind it was, was it Ana-Kit that you had?</t>
+  </si>
+  <si>
+    <t>Yeah, I think so.</t>
+  </si>
+  <si>
+    <t>Would the Benadryl taken now help bring down  the swelling that's going on now?</t>
+  </si>
+  <si>
+    <t>I don't know if much will do it now.</t>
+  </si>
+  <si>
+    <t>You know you get things, I got bitten by a                                 mosquito 5 days ago</t>
+  </si>
+  <si>
+    <t>self-dis</t>
+  </si>
+  <si>
+    <t>and I've still got a little bit of a welt.</t>
+  </si>
+  <si>
+    <t>I'm fairly sensitive to it.</t>
+  </si>
+  <si>
+    <t>So you might take a week for that swelling to go down.</t>
+  </si>
+  <si>
+    <t>But, ah, most of what you want the antihistamine for initially is right at the beginning.</t>
+  </si>
+  <si>
+    <t>It blocks the histamine reaction so you don't pour all this protein and fluid--</t>
+  </si>
+  <si>
+    <t>that's       why it swells.</t>
+  </si>
+  <si>
+    <t>But once it's in there, you know, basically your reaction's probably</t>
+  </si>
+  <si>
+    <t>And if it bothers you, you can try putting on a heat pack or soaking it or something.</t>
+  </si>
+  <si>
+    <t>That will help you.</t>
+  </si>
+  <si>
+    <t>Initially I wouldn't put heat on it.</t>
+  </si>
+  <si>
+    <t>You don't want to spread it.</t>
+  </si>
+  <si>
+    <t>You want to localize it.</t>
+  </si>
+  <si>
+    <t>So ice or something like that or cold water.</t>
+  </si>
+  <si>
+    <t>But, ah...</t>
+  </si>
+  <si>
+    <t>But as I say I have mixed feelings as to whether or not--</t>
+  </si>
+  <si>
+    <t>If you want to be       really absolutely safe, but if you want to look at it your likelihood of needing        the kit --</t>
+  </si>
+  <si>
+    <t>I don't know what they cost--</t>
+  </si>
+  <si>
+    <t>about 20 dollars or something like that--</t>
+  </si>
+  <si>
+    <t>About that.</t>
+  </si>
+  <si>
+    <t>As opposed to a couple dollars for Benadryl, if you don't already  have it, or</t>
+  </si>
+  <si>
+    <t>( Unintel )</t>
+  </si>
+  <si>
+    <t>unintel</t>
+  </si>
+  <si>
+    <t>I think you probably don't need it.</t>
+  </si>
+  <si>
+    <t>On the other hand, it's a kind of thing        where it not like I'm giving you something that's going to cause problems</t>
+  </si>
+  <si>
+    <t>because         you may never need it.</t>
+  </si>
+  <si>
+    <t>It's just a question of expense.</t>
+  </si>
+  <si>
+    <t>Alright.</t>
+  </si>
+  <si>
+    <t>I carried it when I was working in the woods everyday.</t>
+  </si>
+  <si>
+    <t>I carried it all the time.</t>
+  </si>
+  <si>
+    <t>And then I never bothered the last few years.</t>
+  </si>
+  <si>
+    <t>Haven't been stung either.</t>
+  </si>
+  <si>
+    <t>(laughs)  Yeah, yellow-jackets can be really nasty.</t>
+  </si>
+  <si>
+    <t>They'll make anyone swell.</t>
+  </si>
+  <si>
+    <t>And the fact that you've swollen worse this time may be that you’re more sensitive      to it,</t>
+  </si>
+  <si>
+    <t>or it may be that you got more venom.</t>
+  </si>
+  <si>
+    <t>There's just no way to know.</t>
+  </si>
+  <si>
+    <t>Where you swell too also makes a  difference where you were stung.</t>
+  </si>
+  <si>
+    <t>Do you know how to give the injection?</t>
+  </si>
+  <si>
+    <t>Know how to?</t>
+  </si>
+  <si>
+    <t>I'd have to review that.</t>
+  </si>
+  <si>
+    <t>Do read it.</t>
+  </si>
+  <si>
+    <t>Basically, usually if there's any question, like if your windpipe was             closing up, you want to go right to the thigh.</t>
+  </si>
+  <si>
+    <t>There's no big blood vessels here.</t>
+  </si>
+  <si>
+    <t>You don't want to inject it in the vein.</t>
+  </si>
+  <si>
+    <t>I mean, you can, intravenously, but I wouldn't       generally do it for you.</t>
+  </si>
+  <si>
+    <t>But you want to get it into the muscle the fastest.</t>
+  </si>
+  <si>
+    <t>The next       easiest way to do it is under the skin.</t>
+  </si>
+  <si>
+    <t>Just grab it up here and just jab it in here.</t>
+  </si>
+  <si>
+    <t>Not even the muscle.</t>
+  </si>
+  <si>
+    <t>And that will give you some benefit as well.</t>
+  </si>
+  <si>
+    <t>They       come in a thing where you go zip and you get one dose</t>
+  </si>
+  <si>
+    <t>and you twist it a half a turn        and you can do a second dose.</t>
+  </si>
+  <si>
+    <t>But I wouldn't do it.</t>
+  </si>
+  <si>
+    <t>The other thing is, if you ever         see that solution turn yellow, throw it away.</t>
+  </si>
+  <si>
+    <t>It can become a fairly toxic chemical,</t>
+  </si>
+  <si>
+    <t>that breaks down.</t>
+  </si>
+  <si>
+    <t>This is one that I really would probably discard after the time        limit.</t>
+  </si>
+  <si>
+    <t>But do read the directions.</t>
+  </si>
+  <si>
+    <t>You know, if someone were actually literally        gasping for breath I wouldn't even take the pants off, I’d just go right through.</t>
+  </si>
+  <si>
+    <t>You  run some risk of infection but could save a life.</t>
+  </si>
+  <si>
+    <t>Otherwise you get to some skin area that you can do.</t>
+  </si>
+  <si>
+    <t>Are you going to be alone...?</t>
+  </si>
+  <si>
+    <t>[?]l/s</t>
+  </si>
+  <si>
+    <t>Ah, two of us.</t>
+  </si>
+  <si>
+    <t>Two of us.</t>
+  </si>
+  <si>
+    <t>So, someone else could help.</t>
+  </si>
+  <si>
+    <t>I give it to you with a refill</t>
+  </si>
+  <si>
+    <t>but I honestly       don't know that you'll need it.</t>
+  </si>
+  <si>
+    <t>It just depends on how nervous you're                   going to be going out there--</t>
+  </si>
+  <si>
+    <t>Ah...</t>
+  </si>
+  <si>
+    <t>and the feeling that you don't have this kind of security especially after having        been bitten.</t>
+  </si>
+  <si>
+    <t>emp</t>
+  </si>
+  <si>
+    <t>Although in a way it should be security that you got bitten and you        didn’t have breathing troubles.</t>
+  </si>
+  <si>
+    <t>Okay?</t>
+  </si>
+  <si>
+    <t>?understand</t>
+  </si>
+  <si>
+    <t>(Laughs)</t>
+  </si>
+  <si>
+    <t>How about the anxiety?</t>
+  </si>
+  <si>
+    <t>?p/s</t>
+  </si>
+  <si>
+    <t>How's that doing?</t>
+  </si>
+  <si>
+    <t>It's not acute.</t>
+  </si>
+  <si>
     <t>gives-p/s</t>
-  </si>
-  <si>
-    <t>Okay.</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>bc</t>
-  </si>
-  <si>
-    <t>I used to carry one around and I just kind of let it lapse.</t>
-  </si>
-  <si>
-    <t>gives-thera</t>
-  </si>
-  <si>
-    <t>gives-l/s</t>
-  </si>
-  <si>
-    <t>I haven't been              in the woods much.</t>
-  </si>
-  <si>
-    <t>concern</t>
-  </si>
-  <si>
-    <t>Ah-huh.</t>
-  </si>
-  <si>
-    <t>I went out hiking yesterday and got stung by a bee</t>
-  </si>
-  <si>
-    <t>and got a       nice big reaction on my leg.</t>
-  </si>
-  <si>
-    <t>What kind of a reaction?</t>
-  </si>
-  <si>
-    <t>?med</t>
-  </si>
-  <si>
-    <t>Basically swelling.</t>
-  </si>
-  <si>
-    <t>Have you ever had any other problem other than swelling?</t>
-  </si>
-  <si>
-    <t>None other than swelling.</t>
-  </si>
-  <si>
-    <t>Each one gets progressively a little  more severe.</t>
-  </si>
-  <si>
-    <t>Now was this, what type of bee, yellow jacket...?</t>
-  </si>
-  <si>
-    <t>c-med/thera</t>
-  </si>
-  <si>
-    <t>Yeah.</t>
-  </si>
-  <si>
-    <t>Have you ever used a bee sting kit?</t>
-  </si>
-  <si>
-    <t>[?]thera</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>I was a little concerned.</t>
-  </si>
-  <si>
-    <t>I'm taking off Friday for a week in the back country…</t>
-  </si>
-  <si>
-    <t>In the Tetons.</t>
-  </si>
-  <si>
-    <t>And we won't be able to get out.</t>
-  </si>
-  <si>
-    <t>And it'd be some miserable time  if there was something wrong.</t>
-  </si>
-  <si>
-    <t>Ah, in general, the kind of reaction you have is the kind of reaction you'll have.</t>
-  </si>
-  <si>
-    <t>c-l/s-p/s</t>
-  </si>
-  <si>
-    <t>So if you tend to get swelling and tend not to get asthma or lung problems—</t>
-  </si>
-  <si>
-    <t>It's not 100 per cent.</t>
-  </si>
-  <si>
-    <t>If you were in the general ------- area, I would probably recommend against buryin g</t>
-  </si>
-  <si>
-    <t>It's only money.</t>
-  </si>
-  <si>
-    <t>laughs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yeah. </t>
-  </si>
-  <si>
-    <t>(laughs)</t>
-  </si>
-  <si>
-    <t>And, as I say, the likelihood of--</t>
-  </si>
-  <si>
-    <t>trans</t>
-  </si>
-  <si>
-    <t>and they've done some research on this--</t>
-  </si>
-  <si>
-    <t>the likelihood of you having a significant reaction other than swelling, ah, is        extremely small.</t>
-  </si>
-  <si>
-    <t>Probably not much greater than, if any, the average person.</t>
-  </si>
-  <si>
-    <t>Ah, how much swelling you get depends on a couple of factors, well, three factors</t>
-  </si>
-  <si>
-    <t>Ah-hmm.</t>
-  </si>
-  <si>
-    <t>But that's usually about as far as it goes unless you have a major reaction.</t>
-  </si>
-  <si>
-    <t>Ah, the a ...now when you got stung was the stinger left in?</t>
-  </si>
-  <si>
-    <t>I didn't pay that much attention to it.</t>
-  </si>
-  <si>
-    <t>I knocked the bee off and--</t>
-  </si>
-  <si>
-    <t>Take a look when, if you should get stung to be sure that the stinger isn’t in       there.</t>
-  </si>
-  <si>
-    <t>orient</t>
-  </si>
-  <si>
-    <t>And do you know how to take the stinger out?</t>
-  </si>
-  <si>
-    <t>Never, never grab it</t>
-  </si>
-  <si>
-    <t>because if it's got the sack you'll essentially squeeze in like a hypodermic syringe.</t>
-  </si>
-  <si>
-    <t>What       you want to do is take the sharp edge</t>
-  </si>
-  <si>
-    <t>and if you've got a knife you take it like this.</t>
-  </si>
-  <si>
-    <t>And if this is the stinger you flick it on out.</t>
-  </si>
-  <si>
-    <t>You flick it out this way so that you’re going out rather than squeeze.</t>
-  </si>
-  <si>
-    <t>You can use a good sharp fingernail you can do  that too.</t>
-  </si>
-  <si>
-    <t>The idea is--you're not trying to cut yourself--</t>
-  </si>
-  <si>
-    <t>Right.</t>
-  </si>
-  <si>
-    <t>But the idea is to flick it out so that if you pull it out</t>
-  </si>
-  <si>
-    <t>rather than grab it and</t>
-  </si>
-  <si>
-    <t>(laughs</t>
-  </si>
-  <si>
-    <t>So, ah...were you not going to be where you would be a long long way from any kind of exposure, I would really probably say why bother.</t>
-  </si>
-  <si>
-    <t>It's always hard to say   don't do something that's a safety factor.</t>
-  </si>
-  <si>
-    <t>Other than when you're looking at costs and things.</t>
-  </si>
-  <si>
-    <t>So...But I would kind of...</t>
-  </si>
-  <si>
-    <t>I'll give you the prescription because, as you say, you're going to be way out there.</t>
-  </si>
-  <si>
-    <t>But to be honest, I don't think you need it.</t>
-  </si>
-  <si>
-    <t>The best thing that you could probably do                                                       is take some Benadryl.</t>
-  </si>
-  <si>
-    <t>And that, if you get stung, you take some of that.</t>
-  </si>
-  <si>
-    <t>That's an       antihistamine.</t>
-  </si>
-  <si>
-    <t>Because you're not going to give yourself an injection right in that                  area usually.</t>
-  </si>
-  <si>
-    <t>There are times when you can do a little bit in the area around it,       which will constrict it.</t>
-  </si>
-  <si>
-    <t>But you're not going to do that kind of thing.</t>
-  </si>
-  <si>
-    <t>The kits are basically for zot injection,</t>
-  </si>
-  <si>
-    <t>usually for somebody's who's got       respiratory problems</t>
-  </si>
-  <si>
-    <t>or where they're getting swelling of their throat and so on.</t>
-  </si>
-  <si>
-    <t>Having trouble breathing.</t>
-  </si>
-  <si>
-    <t>But a local reaction is not where you use the kit.</t>
-  </si>
-  <si>
-    <t>In fact the kits usually contain some chlorpheniramine,</t>
-  </si>
-  <si>
-    <t>which is  just a different                                                                     antihistamine plus the injectable.</t>
-  </si>
-  <si>
-    <t>I was going to ask you about Benadryl antihistamine.</t>
-  </si>
-  <si>
-    <t>Chlor-Trimeton, Chlorpheniramine are basically the same.</t>
-  </si>
-  <si>
-    <t>Benadryl is an old and tried--</t>
-  </si>
-  <si>
-    <t>makes you sleepy.</t>
-  </si>
-  <si>
-    <t>But you can't beat it.</t>
-  </si>
-  <si>
-    <t>And that's the thing, if you want to be sure to get the least reaction, in traditional kinds       of things that I would take.</t>
-  </si>
-  <si>
-    <t>The injection is adrenaline.</t>
-  </si>
-  <si>
-    <t>And it'll speed up your       heart rate and make you jittery and nervous and things like that.</t>
-  </si>
-  <si>
-    <t>It wears off in about        15 minutes.</t>
-  </si>
-  <si>
-    <t>But it can be life- saving if you can't breathe.</t>
-  </si>
-  <si>
-    <t>And as I say, the likelihood of your going into not being                                        able to breath is extremely small.</t>
-  </si>
-  <si>
-    <t>Very small.</t>
-  </si>
-  <si>
-    <t>You know, if you told me that this                                happened and your face swelled up from the  injection then I’d be very concerned</t>
-  </si>
-  <si>
-    <t>or that you had asthma from it or something, then I’d be very concerned.</t>
-  </si>
-  <si>
-    <t>And you really don't have any history of asthma or anything like that.</t>
-  </si>
-  <si>
-    <t>Oh, okay.</t>
-  </si>
-  <si>
-    <t>So, ah...</t>
-  </si>
-  <si>
-    <t>Do you remember what kind it was, was it Ana-Kit that you had?</t>
-  </si>
-  <si>
-    <t>Yeah, I think so.</t>
-  </si>
-  <si>
-    <t>Would the Benadryl taken now help bring down  the swelling that's going on now?</t>
-  </si>
-  <si>
-    <t>I don't know if much will do it now.</t>
-  </si>
-  <si>
-    <t>You know you get things, I got bitten by a                                 mosquito 5 days ago</t>
-  </si>
-  <si>
-    <t>self-dis</t>
-  </si>
-  <si>
-    <t>and I've still got a little bit of a welt.</t>
-  </si>
-  <si>
-    <t>I'm fairly sensitive to it.</t>
-  </si>
-  <si>
-    <t>So you might take a week for that swelling to go down.</t>
-  </si>
-  <si>
-    <t>But, ah, most of what you want the antihistamine for initially is right at the beginning.</t>
-  </si>
-  <si>
-    <t>It blocks the histamine reaction so you don't pour all this protein and fluid--</t>
-  </si>
-  <si>
-    <t>that's       why it swells.</t>
-  </si>
-  <si>
-    <t>But once it's in there, you know, basically your reaction's probably</t>
-  </si>
-  <si>
-    <t>And if it bothers you, you can try putting on a heat pack or soaking it or something.</t>
-  </si>
-  <si>
-    <t>That will help you.</t>
-  </si>
-  <si>
-    <t>Initially I wouldn't put heat on it.</t>
-  </si>
-  <si>
-    <t>You don't want to spread it.</t>
-  </si>
-  <si>
-    <t>You want to localize it.</t>
-  </si>
-  <si>
-    <t>So ice or something like that or cold water.</t>
-  </si>
-  <si>
-    <t>But, ah...</t>
-  </si>
-  <si>
-    <t>But as I say I have mixed feelings as to whether or not--</t>
-  </si>
-  <si>
-    <t>If you want to be       really absolutely safe, but if you want to look at it your likelihood of needing        the kit --</t>
-  </si>
-  <si>
-    <t>I don't know what they cost--</t>
-  </si>
-  <si>
-    <t>about 20 dollars or something like that--</t>
-  </si>
-  <si>
-    <t>About that.</t>
-  </si>
-  <si>
-    <t>As opposed to a couple dollars for Benadryl, if you don't already  have it, or</t>
-  </si>
-  <si>
-    <t>( Unintel )</t>
-  </si>
-  <si>
-    <t>unintel</t>
-  </si>
-  <si>
-    <t>I think you probably don't need it.</t>
-  </si>
-  <si>
-    <t>On the other hand, it's a kind of thing        where it not like I'm giving you something that's going to cause problems</t>
-  </si>
-  <si>
-    <t>because         you may never need it.</t>
-  </si>
-  <si>
-    <t>It's just a question of expense.</t>
-  </si>
-  <si>
-    <t>Alright.</t>
-  </si>
-  <si>
-    <t>I carried it when I was working in the woods everyday.</t>
-  </si>
-  <si>
-    <t>I carried it all the time.</t>
-  </si>
-  <si>
-    <t>And then I never bothered the last few years.</t>
-  </si>
-  <si>
-    <t>Haven't been stung either.</t>
-  </si>
-  <si>
-    <t>(laughs)  Yeah, yellow-jackets can be really nasty.</t>
-  </si>
-  <si>
-    <t>They'll make anyone swell.</t>
-  </si>
-  <si>
-    <t>And the fact that you've swollen worse this time may be that you’re more sensitive      to it,</t>
-  </si>
-  <si>
-    <t>or it may be that you got more venom.</t>
-  </si>
-  <si>
-    <t>There's just no way to know.</t>
-  </si>
-  <si>
-    <t>Where you swell too also makes a  difference where you were stung.</t>
-  </si>
-  <si>
-    <t>Do you know how to give the injection?</t>
-  </si>
-  <si>
-    <t>Know how to?</t>
-  </si>
-  <si>
-    <t>I'd have to review that.</t>
-  </si>
-  <si>
-    <t>Do read it.</t>
-  </si>
-  <si>
-    <t>Basically, usually if there's any question, like if your windpipe was             closing up, you want to go right to the thigh.</t>
-  </si>
-  <si>
-    <t>There's no big blood vessels here.</t>
-  </si>
-  <si>
-    <t>You don't want to inject it in the vein.</t>
-  </si>
-  <si>
-    <t>I mean, you can, intravenously, but I wouldn't       generally do it for you.</t>
-  </si>
-  <si>
-    <t>But you want to get it into the muscle the fastest.</t>
-  </si>
-  <si>
-    <t>The next       easiest way to do it is under the skin.</t>
-  </si>
-  <si>
-    <t>Just grab it up here and just jab it in here.</t>
-  </si>
-  <si>
-    <t>Not even the muscle.</t>
-  </si>
-  <si>
-    <t>And that will give you some benefit as well.</t>
-  </si>
-  <si>
-    <t>They       come in a thing where you go zip and you get one dose</t>
-  </si>
-  <si>
-    <t>and you twist it a half a turn        and you can do a second dose.</t>
-  </si>
-  <si>
-    <t>But I wouldn't do it.</t>
-  </si>
-  <si>
-    <t>The other thing is, if you ever         see that solution turn yellow, throw it away.</t>
-  </si>
-  <si>
-    <t>It can become a fairly toxic chemical,</t>
-  </si>
-  <si>
-    <t>that breaks down.</t>
-  </si>
-  <si>
-    <t>This is one that I really would probably discard after the time        limit.</t>
-  </si>
-  <si>
-    <t>But do read the directions.</t>
-  </si>
-  <si>
-    <t>You know, if someone were actually literally        gasping for breath I wouldn't even take the pants off, I’d just go right through.</t>
-  </si>
-  <si>
-    <t>You  run some risk of infection but could save a life.</t>
-  </si>
-  <si>
-    <t>Otherwise you get to some skin area that you can do.</t>
-  </si>
-  <si>
-    <t>Are you going to be alone...?</t>
-  </si>
-  <si>
-    <t>[?]l/s</t>
-  </si>
-  <si>
-    <t>Ah, two of us.</t>
-  </si>
-  <si>
-    <t>Two of us.</t>
-  </si>
-  <si>
-    <t>So, someone else could help.</t>
-  </si>
-  <si>
-    <t>I give it to you with a refill</t>
-  </si>
-  <si>
-    <t>but I honestly       don't know that you'll need it.</t>
-  </si>
-  <si>
-    <t>It just depends on how nervous you're                   going to be going out there--</t>
-  </si>
-  <si>
-    <t>Ah...</t>
-  </si>
-  <si>
-    <t>and the feeling that you don't have this kind of security especially after having        been bitten.</t>
-  </si>
-  <si>
-    <t>emp</t>
-  </si>
-  <si>
-    <t>Although in a way it should be security that you got bitten and you        didn’t have breathing troubles.</t>
-  </si>
-  <si>
-    <t>Okay?</t>
-  </si>
-  <si>
-    <t>?understand</t>
-  </si>
-  <si>
-    <t>(Laughs)</t>
-  </si>
-  <si>
-    <t>How about the anxiety?</t>
-  </si>
-  <si>
-    <t>?p/s</t>
-  </si>
-  <si>
-    <t>How's that doing?</t>
-  </si>
-  <si>
-    <t>It's not acute.</t>
   </si>
   <si>
     <t>Otherwise, I've just kind of settled into a mild depression right now.</t>
@@ -1188,7 +1188,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1199,56 +1199,56 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1259,21 +1259,21 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -1292,32 +1292,32 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -1325,43 +1325,43 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -1369,10 +1369,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -1380,10 +1380,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -1391,32 +1391,32 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1424,87 +1424,87 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
         <v>50</v>
-      </c>
-      <c r="B35" t="s">
-        <v>51</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -1512,43 +1512,43 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" t="s">
         <v>54</v>
-      </c>
-      <c r="B39" t="s">
-        <v>55</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
@@ -1556,29 +1556,29 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -1589,51 +1589,51 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
@@ -1644,29 +1644,29 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
@@ -1677,32 +1677,32 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" t="s">
         <v>65</v>
-      </c>
-      <c r="B52" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s">
         <v>9</v>
@@ -1710,10 +1710,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
@@ -1721,109 +1721,109 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C60" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -1831,87 +1831,87 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B69" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C70" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
@@ -1930,76 +1930,76 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B75" t="s">
         <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B76" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B79" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C79" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
@@ -2007,43 +2007,43 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B81" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B82" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B84" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
@@ -2051,87 +2051,87 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B85" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B86" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B87" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C87" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B88" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B89" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" t="s">
         <v>21</v>
-      </c>
-      <c r="C89" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C92" t="s">
         <v>9</v>
@@ -2139,10 +2139,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C93" t="s">
         <v>13</v>
@@ -2150,65 +2150,65 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B94" t="s">
         <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B95" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C95" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B97" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B98" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C98" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B99" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
@@ -2216,73 +2216,73 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B102" t="s">
         <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B103" t="s">
         <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -2293,43 +2293,43 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C108" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C110" t="s">
         <v>6</v>
@@ -2337,10 +2337,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C111" t="s">
         <v>13</v>
@@ -2348,10 +2348,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C112" t="s">
         <v>6</v>
@@ -2359,65 +2359,65 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113" t="s">
         <v>120</v>
       </c>
-      <c r="B113" t="s">
-        <v>121</v>
-      </c>
       <c r="C113" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B114" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C114" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B115" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C115" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B117" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C117" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B118" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C118" t="s">
         <v>13</v>
@@ -2425,18 +2425,18 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B119" t="s">
         <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
@@ -2447,73 +2447,73 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="B122" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C122" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B124" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C124" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B125" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C125" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B126" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C126" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B127" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C127" t="s">
         <v>13</v>
@@ -2521,10 +2521,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B128" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C128" t="s">
         <v>13</v>
@@ -2532,54 +2532,54 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B129" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C129" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B130" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C130" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C131" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C132" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C133" t="s">
         <v>6</v>
@@ -2587,10 +2587,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C134" t="s">
         <v>9</v>
@@ -2598,21 +2598,21 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C135" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C136" t="s">
         <v>6</v>
@@ -2620,21 +2620,21 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C137" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" t="s">
         <v>142</v>
-      </c>
-      <c r="B138" t="s">
-        <v>143</v>
       </c>
       <c r="C138" t="s">
         <v>6</v>
@@ -2642,76 +2642,76 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B139" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C139" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C140" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C141" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C142" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C143" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C144" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C145" t="s">
         <v>6</v>
@@ -2719,10 +2719,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C146" t="s">
         <v>6</v>
@@ -2730,10 +2730,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C147" t="s">
         <v>6</v>
@@ -2741,21 +2741,21 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B148" t="s">
         <v>6</v>
       </c>
       <c r="C148" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C149" t="s">
         <v>6</v>
@@ -2763,29 +2763,29 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B150" t="s">
         <v>6</v>
       </c>
       <c r="C150" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
       </c>
       <c r="C151" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
@@ -2796,29 +2796,29 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B153" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C153" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
       </c>
       <c r="C154" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -2829,76 +2829,76 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B156" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C156" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C157" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B158" t="s">
         <v>13</v>
       </c>
       <c r="C158" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B159" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159" t="s">
         <v>18</v>
-      </c>
-      <c r="C159" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C160" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C161" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C162" t="s">
         <v>6</v>
@@ -2906,21 +2906,21 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C163" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C164" t="s">
         <v>13</v>
@@ -2928,10 +2928,10 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C165" t="s">
         <v>6</v>
@@ -2939,131 +2939,131 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C166" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C167" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C168" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C169" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C170" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C171" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C172" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C173" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C174" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C175" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C176" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C177" t="s">
         <v>6</v>
@@ -3071,32 +3071,32 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C178" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C179" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C180" t="s">
         <v>6</v>
@@ -3104,43 +3104,43 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B181" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C181" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C182" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
         <v>183</v>
       </c>
-      <c r="B183" t="s">
-        <v>184</v>
-      </c>
       <c r="C183" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C184" t="s">
         <v>6</v>
@@ -3148,7 +3148,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B185" t="s">
         <v>13</v>
@@ -3159,10 +3159,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C186" t="s">
         <v>13</v>
@@ -3170,142 +3170,142 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C187" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C188" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C189" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B190" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C190" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C191" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
         <v>192</v>
       </c>
-      <c r="B192" t="s">
-        <v>193</v>
-      </c>
       <c r="C192" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B193" t="s">
         <v>11</v>
       </c>
       <c r="C193" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194" t="s">
         <v>195</v>
       </c>
-      <c r="B194" t="s">
-        <v>196</v>
-      </c>
       <c r="C194" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B195" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C195" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B196" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C196" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197" t="s">
         <v>198</v>
       </c>
-      <c r="B197" t="s">
-        <v>199</v>
-      </c>
       <c r="C197" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B198" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C198" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199" t="s">
         <v>201</v>
-      </c>
-      <c r="B199" t="s">
-        <v>16</v>
       </c>
       <c r="C199" t="s">
         <v>6</v>
@@ -3316,7 +3316,7 @@
         <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="C200" t="s">
         <v>6</v>
@@ -3327,7 +3327,7 @@
         <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C201" t="s">
         <v>9</v>
@@ -3338,7 +3338,7 @@
         <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="C202" t="s">
         <v>6</v>
@@ -3349,10 +3349,10 @@
         <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="C203" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3371,10 +3371,10 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C205" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3382,7 +3382,7 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C206" t="s">
         <v>6</v>
@@ -3393,7 +3393,7 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C207" t="s">
         <v>6</v>
@@ -3404,10 +3404,10 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3415,10 +3415,10 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C209" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3426,10 +3426,10 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C210" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3437,10 +3437,10 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C211" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3448,10 +3448,10 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="C212" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3462,7 +3462,7 @@
         <v>11</v>
       </c>
       <c r="C213" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3470,10 +3470,10 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C214" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3481,10 +3481,10 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C215" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3492,10 +3492,10 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C216" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3503,7 +3503,7 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C217" t="s">
         <v>6</v>
@@ -3514,10 +3514,10 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C218" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3528,7 +3528,7 @@
         <v>11</v>
       </c>
       <c r="C219" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3536,7 +3536,7 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C220" t="s">
         <v>9</v>
@@ -3550,7 +3550,7 @@
         <v>11</v>
       </c>
       <c r="C221" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3558,10 +3558,10 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C222" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3572,29 +3572,29 @@
         <v>11</v>
       </c>
       <c r="C223" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B224" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C224" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B225" t="s">
         <v>11</v>
       </c>
       <c r="C225" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3602,10 +3602,10 @@
         <v>227</v>
       </c>
       <c r="B226" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C226" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3613,21 +3613,21 @@
         <v>228</v>
       </c>
       <c r="B227" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C227" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B228" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C228" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3646,7 +3646,7 @@
         <v>231</v>
       </c>
       <c r="B230" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C230" t="s">
         <v>6</v>
@@ -3654,13 +3654,13 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B231" t="s">
+        <v>17</v>
+      </c>
+      <c r="C231" t="s">
         <v>18</v>
-      </c>
-      <c r="C231" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3668,7 +3668,7 @@
         <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="C232" t="s">
         <v>6</v>
@@ -3676,13 +3676,13 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B233" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C233" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3690,10 +3690,10 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C234" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3701,10 +3701,10 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C235" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3712,7 +3712,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C236" t="s">
         <v>6</v>
@@ -3723,7 +3723,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C237" t="s">
         <v>13</v>
@@ -3734,10 +3734,10 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C238" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3745,10 +3745,10 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C239" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3756,10 +3756,10 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C240" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3781,18 +3781,18 @@
         <v>11</v>
       </c>
       <c r="C242" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B243" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C243" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3822,7 +3822,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C246" t="s">
         <v>6</v>
@@ -3833,10 +3833,10 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
+        <v>17</v>
+      </c>
+      <c r="C247" t="s">
         <v>18</v>
-      </c>
-      <c r="C247" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3844,10 +3844,10 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C248" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3863,13 +3863,13 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B250" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C250" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3885,21 +3885,21 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B252" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C252" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B253" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C253" t="s">
         <v>13</v>
@@ -3910,10 +3910,10 @@
         <v>250</v>
       </c>
       <c r="B254" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C254" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3921,7 +3921,7 @@
         <v>251</v>
       </c>
       <c r="B255" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C255" t="s">
         <v>9</v>
@@ -3932,7 +3932,7 @@
         <v>252</v>
       </c>
       <c r="B256" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C256" t="s">
         <v>6</v>
@@ -3951,35 +3951,35 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B258" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C258" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B259" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C259" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B260" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C260" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3998,21 +3998,21 @@
         <v>254</v>
       </c>
       <c r="B262" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C262" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B263" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C263" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4034,7 +4034,7 @@
         <v>4</v>
       </c>
       <c r="C265" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266" spans="1:3">
